--- a/data/trans_dic/P9_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee ordenador/ portátil en su vivienda actual</t>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>51,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,06%</t>
+          <t>52,36%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,05; 61,94</t>
+          <t>36,85; 75,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,79; 68,42</t>
+          <t>37,67; 79,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,06; 59,34</t>
+          <t>37,34; 64,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,1; 59,99</t>
+          <t>35,54; 63,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,58; 57,02</t>
+          <t>41,25; 65,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,19; 60,51</t>
+          <t>40,76; 66,81</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>73,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,89%</t>
+          <t>75,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>74,87%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,8; 84,18</t>
+          <t>61,72; 81,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,02; 85,1</t>
+          <t>60,56; 81,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,51; 79,36</t>
+          <t>69,8; 82,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,42; 79,53</t>
+          <t>69,47; 82,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,66; 80,2</t>
+          <t>68,05; 79,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,3; 80,8</t>
+          <t>67,75; 79,96</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,69%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,54; 99,47</t>
+          <t>92,75; 99,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,77; 99,09</t>
+          <t>92,55; 99,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,77; 99,26</t>
+          <t>94,79; 99,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,36; 99,22</t>
+          <t>94,12; 99,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,19; 98,92</t>
+          <t>95,41; 99,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,79; 98,74</t>
+          <t>95,12; 98,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,34; 83,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,86; 84,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,82; 81,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,06; 81,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,63; 81,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,96; 82,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79,93%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81,83%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>80,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>71,76; 84,53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70,96; 84,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77,59; 85,42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>76,98; 85,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77,47; 83,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77,12; 83,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55339</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71697</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60592</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70396</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115931</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>142093</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>38080; 77720</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48550; 102054</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43986; 76296</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>50642; 90396</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>91233; 144320</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>110598; 181293</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>270624</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>317137</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>296378</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>352122</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>567002</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>669258</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>225914; 298315</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>260098; 349220</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>272653; 321723</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>322685; 381128</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>514873; 604786</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>605683; 714767</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>278069</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>323547</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>353340</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>420189</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>631409</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>743737</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>265180; 283824</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>308079; 330440</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>340896; 357576</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>403231; 425791</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>615914; 639309</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>724166; 753596</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>604031</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>712380</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>710311</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>842707</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1314342</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1555088</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>541971; 638445</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>632460; 754079</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>673533; 741465</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>797064; 881065</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1257665; 1363326</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1485703; 1615940</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>